--- a/data/data2.xlsx
+++ b/data/data2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="MKV" sheetId="1" r:id="rId1"/>
@@ -56,18 +56,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,6 +71,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -93,76 +95,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,17 +110,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +154,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -227,121 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,61 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +436,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,22 +475,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,22 +504,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="D2" s="4">
         <f ca="1" t="shared" ref="D2:D10" si="0">RAND()*100</f>
-        <v>23.8853869478722</v>
+        <v>26.0753850399304</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D3" s="4">
         <f ca="1" t="shared" si="0"/>
-        <v>73.329629329827</v>
+        <v>50.0733649277649</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D4" s="4">
         <f ca="1" t="shared" si="0"/>
-        <v>71.5314570004191</v>
+        <v>83.8261605671979</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D5" s="5">
         <f ca="1" t="shared" si="0"/>
-        <v>10.5632303106519</v>
+        <v>8.57086175730921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D6" s="5">
         <f ca="1" t="shared" si="0"/>
-        <v>12.277732739774</v>
+        <v>17.284006596014</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D7" s="5">
         <f ca="1" t="shared" si="0"/>
-        <v>35.7769979244691</v>
+        <v>30.6868436372928</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D8" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>39.2371191148074</v>
+        <v>55.7207134385769</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D9" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>45.8665179662212</v>
+        <v>99.5126901780634</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="D10" s="7">
         <f ca="1" t="shared" si="0"/>
-        <v>90.5951743856018</v>
+        <v>40.496268659709</v>
       </c>
     </row>
   </sheetData>
